--- a/Webpage Versions.xlsx
+++ b/Webpage Versions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28019"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Madle\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{D8D39985-0E4B-4F72-BF53-18EB4187AD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{955D1C65-5295-47A0-9384-BB34DA6D63ED}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA7B9EA-FA57-4D7E-B146-DD6045567D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B80D01B-D194-4863-9777-A060C58E39AA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6B80D01B-D194-4863-9777-A060C58E39AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,10 +62,10 @@
     <t>First draft, created project skeleton</t>
   </si>
   <si>
-    <t xml:space="preserve">Added a user manual to help with people who may find the website complicated. Added student names, numbers and courses. </t>
-  </si>
-  <si>
     <t>Slight updates to each webpage for added accesibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added a user manual page to help with people who may find the website complicated. Added student names, numbers and courses. </t>
   </si>
 </sst>
 </file>
@@ -457,16 +457,16 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -486,7 +486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.5">
+    <row r="2" spans="1:5" ht="28">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -503,7 +503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.5">
+    <row r="3" spans="1:5" ht="42">
       <c r="A3" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -514,10 +514,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">

--- a/Webpage Versions.xlsx
+++ b/Webpage Versions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Madle\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA7B9EA-FA57-4D7E-B146-DD6045567D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982C9C47-F91C-431A-AD8A-6FCE4480BA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6B80D01B-D194-4863-9777-A060C58E39AA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B80D01B-D194-4863-9777-A060C58E39AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Version</t>
   </si>
@@ -66,13 +66,28 @@
   </si>
   <si>
     <t xml:space="preserve">Added a user manual page to help with people who may find the website complicated. Added student names, numbers and courses. </t>
+  </si>
+  <si>
+    <t>Kieran Moores</t>
+  </si>
+  <si>
+    <t>Added logo and improved colour scheme of the website. Added minor functionality and bug fixes.</t>
+  </si>
+  <si>
+    <t>The first iteration of version 2 with a much better, simpler design that is easier to read. Added aesthetics such as a logo and titles</t>
+  </si>
+  <si>
+    <t>Added a login/logout feature that remembered users. Built a database to handle user accounts and accessibility issues. Started working on a forgot password feature.</t>
+  </si>
+  <si>
+    <t>Improved website functionality that tailors results to the individual. A more personal feel with helpful suggestions.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,19 +472,19 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,7 +501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -503,7 +518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="42">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -520,28 +535,48 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45537</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45544</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
